--- a/Collections/США/Юбилейные 1$ США из недрагоценных металлов.xlsx
+++ b/Collections/США/Юбилейные 1$ США из недрагоценных металлов.xlsx
@@ -1,206 +1,221 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21723"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_F77D7F2F0B13480AFBCAEC034913A15ED2BB4A9E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="&quot;Президенты США&quot;" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="&quot;Доллар Сакагвеи&quot;" sheetId="2" r:id="rId4"/>
+    <sheet name="&quot;Президенты США&quot;" sheetId="1" r:id="rId1"/>
+    <sheet name="&quot;Доллар Сакагвеи&quot;" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Президент</t>
+  </si>
+  <si>
+    <t>Монетный двор</t>
+  </si>
+  <si>
+    <t>Состояние</t>
+  </si>
+  <si>
+    <t>Филадельфия (P)</t>
+  </si>
+  <si>
+    <t>Денвер (D)</t>
+  </si>
+  <si>
+    <t>Джордж Вашингтон</t>
+  </si>
+  <si>
+    <t>Джон Адамс</t>
+  </si>
+  <si>
+    <t>Томас Джефферсон</t>
+  </si>
+  <si>
+    <t>Джеймс Мэдисон</t>
+  </si>
+  <si>
+    <t>Джеймс Монро</t>
+  </si>
+  <si>
+    <t>Джон Куинси Адамс</t>
+  </si>
+  <si>
+    <t>Эндрю Джексон</t>
+  </si>
+  <si>
+    <t>Мартин Ван Бюрен</t>
+  </si>
+  <si>
+    <t>Уильям Гаррисон</t>
+  </si>
+  <si>
+    <t>Джон Тайлер</t>
+  </si>
+  <si>
+    <t>Джеймс Полк</t>
+  </si>
+  <si>
+    <t>Закари Тейлор</t>
+  </si>
+  <si>
+    <t>Миллард Филлмор</t>
+  </si>
+  <si>
+    <t>Франклин Пирс</t>
+  </si>
+  <si>
+    <t>Джеймс Бьюкенен</t>
+  </si>
+  <si>
+    <t>Авраам Линкольн</t>
+  </si>
+  <si>
+    <t>Эндрю Джонсон</t>
+  </si>
+  <si>
+    <t>Улисс Грант</t>
+  </si>
+  <si>
+    <t>Ратерфорд Хейз</t>
+  </si>
+  <si>
+    <t>Гарфилд, Джеймс</t>
+  </si>
+  <si>
+    <t>Чертер Артур</t>
+  </si>
+  <si>
+    <t>Кливленд, Гровер</t>
+  </si>
+  <si>
+    <t>Бенджамин Гаррисон</t>
+  </si>
+  <si>
+    <t>Уильям Мак0Кинли</t>
+  </si>
+  <si>
+    <t>Теодор Рузвельт</t>
+  </si>
+  <si>
+    <t>Уильям Тафт</t>
+  </si>
+  <si>
+    <t>Вудро Вильсон</t>
+  </si>
+  <si>
+    <t>Уоррен Гардинг</t>
+  </si>
+  <si>
+    <t>Калвин Кулидж</t>
+  </si>
+  <si>
+    <t>Герберт Гувер</t>
+  </si>
+  <si>
+    <t>Франклин Рузвельт</t>
+  </si>
+  <si>
+    <t>Гарри Трумен</t>
+  </si>
+  <si>
+    <t>Дуайт Эйзенхауэр</t>
+  </si>
+  <si>
+    <t>Джон Кеннеди</t>
+  </si>
+  <si>
+    <t>Джонсон, Линдон Бейнс</t>
+  </si>
+  <si>
+    <t>Ричард Никсон</t>
+  </si>
+  <si>
+    <t>Джеральд Форд</t>
+  </si>
+  <si>
+    <t>Джимми Картер</t>
+  </si>
+  <si>
+    <t>Рональд Рейган</t>
+  </si>
+  <si>
+    <t>Джордж Буш (ст.)</t>
+  </si>
+  <si>
+    <t>Билл Клинтон</t>
+  </si>
+  <si>
+    <t>Джордж Буш (мл.)</t>
+  </si>
+  <si>
+    <t>Барак Обама</t>
+  </si>
+  <si>
     <t>Год</t>
   </si>
   <si>
-    <t>№</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Монетный двор</t>
   </si>
   <si>
-    <t>Президент</t>
-  </si>
-  <si>
-    <t>Монетный двор</t>
-  </si>
-  <si>
-    <t>Состояние</t>
-  </si>
-  <si>
-    <t>Филадельфия (P)</t>
-  </si>
-  <si>
-    <t>Денвер (D)</t>
-  </si>
-  <si>
     <t>Сан-Франциско (S)</t>
   </si>
   <si>
-    <t>Джордж Вашингтон</t>
-  </si>
-  <si>
-    <t>Джон Адамс</t>
-  </si>
-  <si>
-    <t>Томас Джефферсон</t>
-  </si>
-  <si>
-    <t>Джеймс Мэдисон</t>
-  </si>
-  <si>
-    <t>Джеймс Монро</t>
-  </si>
-  <si>
-    <t>Джон Куинси Адамс</t>
-  </si>
-  <si>
-    <t>Эндрю Джексон</t>
-  </si>
-  <si>
-    <t>Мартин Ван Бюрен</t>
-  </si>
-  <si>
-    <t>Уильям Гаррисон</t>
-  </si>
-  <si>
-    <t>Джон Тайлер</t>
-  </si>
-  <si>
-    <t>Джеймс Полк</t>
-  </si>
-  <si>
-    <t>Закари Тейлор</t>
-  </si>
-  <si>
-    <t>Миллард Филлмор</t>
-  </si>
-  <si>
-    <t>Франклин Пирс</t>
-  </si>
-  <si>
-    <t>Джеймс Бьюкенен</t>
-  </si>
-  <si>
-    <t>Авраам Линкольн</t>
-  </si>
-  <si>
-    <t>Эндрю Джонсон</t>
-  </si>
-  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Улисс Грант</t>
-  </si>
-  <si>
-    <t>Ратерфорд Хейз</t>
-  </si>
-  <si>
-    <t>Гарфилд, Джеймс</t>
-  </si>
-  <si>
-    <t>Чертер Артур</t>
-  </si>
-  <si>
-    <t>Кливленд, Гровер</t>
-  </si>
-  <si>
-    <t>Бенджамин Гаррисон</t>
-  </si>
-  <si>
-    <t>Уильям Мак0Кинли</t>
-  </si>
-  <si>
-    <t>Теодор Рузвельт</t>
-  </si>
-  <si>
-    <t>Уильям Тафт</t>
-  </si>
-  <si>
-    <t>Вудро Вильсон</t>
-  </si>
-  <si>
-    <t>Уоррен Гардинг</t>
-  </si>
-  <si>
-    <t>Калвин Кулидж</t>
-  </si>
-  <si>
-    <t>Герберт Гувер</t>
-  </si>
-  <si>
-    <t>Франклин Рузвельт</t>
-  </si>
-  <si>
-    <t>Гарри Трумен</t>
-  </si>
-  <si>
-    <t>Дуайт Эйзенхауэр</t>
-  </si>
-  <si>
-    <t>Джон Кеннеди</t>
-  </si>
-  <si>
-    <t>Джонсон, Линдон Бейнс</t>
-  </si>
-  <si>
-    <t>Ричард Никсон</t>
-  </si>
-  <si>
-    <t>Джеральд Форд</t>
-  </si>
-  <si>
-    <t>Джимми Картер</t>
-  </si>
-  <si>
-    <t>Рональд Рейган</t>
-  </si>
-  <si>
-    <t>Джордж Буш (ст.)</t>
-  </si>
-  <si>
-    <t>Билл Клинтон</t>
-  </si>
-  <si>
-    <t>Джордж Буш (мл.)</t>
-  </si>
-  <si>
-    <t>Барак Обама</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
@@ -210,7 +225,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -232,7 +247,13 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -243,27 +264,35 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -273,6 +302,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -281,9 +311,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -298,107 +330,93 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="180" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
     <dxf>
-      <font/>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFDE9D9"/>
-          <bgColor rgb="FFFDE9D9"/>
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD6E3BC"/>
-          <bgColor rgb="FFD6E3BC"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
@@ -411,17 +429,38 @@
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE5B8B7"/>
-          <bgColor rgb="FFE5B8B7"/>
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -434,1038 +473,1354 @@
           <bgColor rgb="FFB8E08C"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6.0" ySplit="2.0" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G1" sqref="G1" pane="topRight"/>
-      <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
-      <selection activeCell="G3" sqref="G3" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.43"/>
-    <col customWidth="1" min="2" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="4" width="5.0"/>
-    <col customWidth="1" min="5" max="5" width="7.14"/>
-    <col customWidth="1" min="6" max="6" width="13.86"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="57" customHeight="1">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="57.0" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="C3" s="6">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <f t="shared" ref="E3:E46" si="0">IF(OR(AND(C3&gt;0,D3&gt;0),AND(C3&gt;0,D3="0"),AND(D3&gt;0,C3="0")),"OK",IF(OR(AND(C3=0,D3=0),AND(C3=0,D3="0"),AND(D3=0,C3="0")),"!!!!!!!!!!",""))</f>
+        <v>OK</v>
+      </c>
+      <c r="F3" s="8" t="str">
+        <f t="shared" ref="F3:F46" si="1">IF(OR(AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v>Есть на обмен</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Есть на обмен</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Есть на обмен</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="18" t="str">
-        <f t="shared" ref="E3:E46" si="1">IF(OR(AND(C3&gt;0,D3&gt;0),AND(C3&gt;0,D3="0"),AND(D3&gt;0,C3="0")),"OK",IF(OR(AND(C3=0,D3=0),AND(C3=0,D3="0"),AND(D3=0,C3="0")),"!!!!!!!!!!",""))</f>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F3" s="19" t="str">
-        <f t="shared" ref="F3:F46" si="2">IF(OR(AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
+      <c r="F6" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="16" t="s">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F4" s="19" t="str">
-        <f t="shared" si="2"/>
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="16" t="s">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-      <c r="F5" s="19" t="str">
-        <f t="shared" si="2"/>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="16" t="s">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-      <c r="F6" s="19" t="str">
-        <f t="shared" si="2"/>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="16" t="s">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Есть на обмен</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Есть на обмен</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Есть на обмен</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="C7" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F7" s="19" t="str">
-        <f t="shared" si="2"/>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F8" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Есть на обмен</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="13">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F9" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F10" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="13">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F11" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Есть на обмен</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="13">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F12" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Есть на обмен</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="13">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F13" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Есть на обмен</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="13">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F14" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Есть на обмен</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="13">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="16" t="s">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="C15" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F15" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="13">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="C16" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F16" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="13">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="F26" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F17" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="13">
-        <v>16.0</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F18" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="13">
-        <v>17.0</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E19" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F19" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="13">
-        <v>18.0</v>
-      </c>
-      <c r="B20" s="16" t="s">
+      <c r="F27" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F28" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="C20" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F20" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="13">
-        <v>19.0</v>
-      </c>
-      <c r="B21" s="16" t="s">
+      <c r="B29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F29" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="C21" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D21" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E21" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="B30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F21" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="13">
-        <v>20.0</v>
-      </c>
-      <c r="B22" s="16" t="s">
+      <c r="F30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="C22" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="D22" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E22" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F22" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Есть на обмен</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="13">
-        <v>21.0</v>
-      </c>
-      <c r="B23" s="16" t="s">
+      <c r="B31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F31" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="C23" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D23" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E23" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="B32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F32" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F23" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="13">
-        <v>22.0</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F24" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="13">
-        <v>23.0</v>
-      </c>
-      <c r="B25" s="16" t="s">
+      <c r="F33" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="C25" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F25" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="13">
-        <v>24.0</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="B34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F26" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="13">
-        <v>25.0</v>
-      </c>
-      <c r="B27" s="16" t="s">
+      <c r="F34" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="C27" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D27" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="B35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F27" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="13">
-        <v>26.0</v>
-      </c>
-      <c r="B28" s="16" t="s">
+      <c r="F35" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="C28" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D28" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E28" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="B36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F28" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="13">
-        <v>27.0</v>
-      </c>
-      <c r="B29" s="16" t="s">
+      <c r="F36" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="C29" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D29" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E29" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="B37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F29" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="13">
-        <v>28.0</v>
-      </c>
-      <c r="B30" s="16" t="s">
+      <c r="F37" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="C30" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D30" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E30" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="B38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F30" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="13">
-        <v>29.0</v>
-      </c>
-      <c r="B31" s="16" t="s">
+      <c r="F38" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="C31" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D31" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E31" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="B39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F31" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="13">
-        <v>30.0</v>
-      </c>
-      <c r="B32" s="16" t="s">
+      <c r="F39" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="C32" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D32" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="E32" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F32" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="13">
-        <v>31.0</v>
-      </c>
-      <c r="B33" s="16" t="s">
+      <c r="B40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F40" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="C33" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E33" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="B41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F33" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="13">
-        <v>32.0</v>
-      </c>
-      <c r="B34" s="16" t="s">
+      <c r="F41" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="C34" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D34" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E34" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="B42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F34" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="13">
-        <v>33.0</v>
-      </c>
-      <c r="B35" s="16" t="s">
+      <c r="F42" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="C35" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D35" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E35" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="B43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F35" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="13">
-        <v>34.0</v>
-      </c>
-      <c r="B36" s="16" t="s">
+      <c r="F43" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="C36" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D36" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E36" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="B44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F36" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="13">
-        <v>35.0</v>
-      </c>
-      <c r="B37" s="16" t="s">
+      <c r="F44" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="C37" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D37" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E37" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="B45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F37" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="13">
-        <v>36.0</v>
-      </c>
-      <c r="B38" s="16" t="s">
+      <c r="F45" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="C38" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E38" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="B46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F38" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="13">
-        <v>37.0</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D39" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E39" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F39" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="13">
-        <v>38.0</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D40" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E40" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F40" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="13">
-        <v>39.0</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D41" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E41" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F41" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="13">
-        <v>40.0</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D42" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E42" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F42" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="13">
-        <v>41.0</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D43" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E43" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F43" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="13">
-        <v>42.0</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D44" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E44" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F44" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="13">
-        <v>43.0</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D45" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E45" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F45" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="13">
-        <v>44.0</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D46" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E46" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F46" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="22"/>
-    </row>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="F46" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2426,22 +2781,22 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E46">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E46">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E46">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D46">
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2457,461 +2812,462 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6.0" ySplit="2.0" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G1" sqref="G1" pane="topRight"/>
-      <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
-      <selection activeCell="G3" sqref="G3" pane="bottomRight"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.0"/>
-    <col customWidth="1" min="2" max="4" width="7.57"/>
-    <col customWidth="1" min="5" max="5" width="9.43"/>
-    <col customWidth="1" min="6" max="6" width="14.29"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="43.5" customHeight="1">
+      <c r="A2" s="20"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <f t="shared" ref="E3:E17" si="0">IF(OR(AND(B3&gt;0,U3="2"),AND(B3="-",U3="2")),"OK",IF(OR(AND(B3 = 0,U3 ="0"),AND(U3 = "0",B3="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="F3" s="8" t="str">
+        <f t="shared" ref="F3:F17" si="1">IF(OR(AND(L19&gt;1,L19&lt;&gt;"-"),AND(M19&gt;1,M19&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="U3" s="10" t="str">
+        <f t="shared" ref="U3:U17" si="2">IF((OR(AND(C3&gt;0,D3&gt;0),AND(C3&gt;0,D3="-"),AND(D3&gt;0,C3="-"))),"2",IF(OR(AND(C3=0,D3=0),AND(C3=0,D3="-"),AND(D3=0,C3="-"),AND(D3="-",C3="-")),"0","1"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A4" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U4" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A5" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U5" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A6" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A7" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A8" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A9" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A10" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A11" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A12" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A13" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U13" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="43.5" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="13">
-        <v>2000.0</v>
-      </c>
-      <c r="B3" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="C3" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="18" t="str">
-        <f t="shared" ref="E3:E17" si="1">IF(OR(AND(B3&gt;0,U3="2"),AND(B3="-",U3="2")),"OK",IF(OR(AND(B3 = 0,U3 ="0"),AND(U3 = "0",B3="-")),"!!!!!!!!!!",""))</f>
-        <v/>
-      </c>
-      <c r="F3" s="19" t="str">
-        <f t="shared" ref="F3:F17" si="2">IF(OR(AND(L19&gt;1,L19&lt;&gt;"-"),AND(M19&gt;1,M19&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="U3" s="21" t="str">
-        <f t="shared" ref="U3:U17" si="3">IF((OR(AND(C3&gt;0,D3&gt;0),AND(C3&gt;0,D3="-"),AND(D3&gt;0,C3="-"))),"2",IF(OR(AND(C3=0,D3=0),AND(C3=0,D3="-"),AND(D3=0,C3="-"),AND(D3="-",C3="-")),"0","1"))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="13">
-        <v>2001.0</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="18" t="str">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="14" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A14" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F4" s="19" t="str">
+      <c r="F14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U14" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U4" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="13">
-        <v>2002.0</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="18" t="str">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A15" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F5" s="19" t="str">
+      <c r="F15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U15" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U5" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="13">
-        <v>2003.0</v>
-      </c>
-      <c r="B6" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="18" t="str">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A16" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F6" s="19" t="str">
+      <c r="F16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U16" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U6" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="13">
-        <v>2004.0</v>
-      </c>
-      <c r="B7" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="18" t="str">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A17" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U17" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U7" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="13">
-        <v>2005.0</v>
-      </c>
-      <c r="B8" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F8" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U8" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="13">
-        <v>2006.0</v>
-      </c>
-      <c r="B9" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F9" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U9" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="13">
-        <v>2007.0</v>
-      </c>
-      <c r="B10" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F10" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U10" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="13">
-        <v>2008.0</v>
-      </c>
-      <c r="B11" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F11" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U11" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="13">
-        <v>2009.0</v>
-      </c>
-      <c r="B12" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="C12" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F12" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U12" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="13">
-        <v>2010.0</v>
-      </c>
-      <c r="B13" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C13" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F13" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U13" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="13">
-        <v>2011.0</v>
-      </c>
-      <c r="B14" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C14" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F14" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U14" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="13">
-        <v>2012.0</v>
-      </c>
-      <c r="B15" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C15" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F15" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U15" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="13">
-        <v>2013.0</v>
-      </c>
-      <c r="B16" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F16" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U16" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="13">
-        <v>2014.0</v>
-      </c>
-      <c r="B17" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F17" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U17" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:21" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -3887,7 +4243,7 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:D17">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3904,30 +4260,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D17">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D17">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E17">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E17">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="1" priority="6">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E17">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="7">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
--- a/Collections/США/Юбилейные 1$ США из недрагоценных металлов.xlsx
+++ b/Collections/США/Юбилейные 1$ США из недрагоценных металлов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\США\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\США\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>№</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Классификация звезд, Энни Кэннон</t>
+  </si>
+  <si>
+    <t>Вакцина против полиомиелита</t>
   </si>
 </sst>
 </file>
@@ -864,17 +867,17 @@
       <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="7" max="26" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -889,7 +892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="2" t="s">
@@ -900,7 +903,7 @@
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -922,7 +925,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -944,7 +947,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -966,7 +969,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -988,7 +991,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -1780,7 +1783,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -1868,962 +1871,962 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -2879,16 +2882,16 @@
       <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="4" width="7.54296875" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-    <col min="7" max="26" width="8.7265625" customWidth="1"/>
+    <col min="2" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>49</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -2914,7 +2917,7 @@
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2000</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2001</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2002</v>
       </c>
@@ -2993,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2003</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2004</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2005</v>
       </c>
@@ -3071,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2006</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2007</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2008</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2009</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2010</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2011</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2012</v>
       </c>
@@ -3253,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2013</v>
       </c>
@@ -3279,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2014</v>
       </c>
@@ -3305,989 +3308,989 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -4346,20 +4349,20 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>49</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="2" t="s">
@@ -4385,7 +4388,7 @@
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2018</v>
       </c>
@@ -4398,7 +4401,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2019</v>
       </c>
@@ -4415,20 +4418,26 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2019</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
       <c r="E5" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2019</v>
       </c>
@@ -4441,7 +4450,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2019</v>
       </c>
@@ -4454,7 +4463,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
@@ -4465,7 +4474,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -4476,7 +4485,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -4487,7 +4496,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -4498,7 +4507,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -4509,7 +4518,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -4520,7 +4529,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -4531,7 +4540,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -4542,7 +4551,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -4553,7 +4562,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -4564,7 +4573,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -4575,7 +4584,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -4586,7 +4595,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -4597,7 +4606,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -4608,7 +4617,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
@@ -4619,7 +4628,7 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -4630,7 +4639,7 @@
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -4641,7 +4650,7 @@
       </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
@@ -4652,7 +4661,7 @@
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
@@ -4663,7 +4672,7 @@
       </c>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
@@ -4674,7 +4683,7 @@
       </c>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
@@ -4685,7 +4694,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
@@ -4696,7 +4705,7 @@
       </c>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -4707,7 +4716,7 @@
       </c>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
@@ -4718,7 +4727,7 @@
       </c>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
@@ -4729,7 +4738,7 @@
       </c>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
@@ -4740,7 +4749,7 @@
       </c>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -4751,7 +4760,7 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
@@ -4762,7 +4771,7 @@
       </c>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
@@ -4773,7 +4782,7 @@
       </c>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
@@ -4784,7 +4793,7 @@
       </c>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
@@ -4795,7 +4804,7 @@
       </c>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
@@ -4806,7 +4815,7 @@
       </c>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
@@ -4817,7 +4826,7 @@
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
@@ -4828,7 +4837,7 @@
       </c>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
@@ -4839,7 +4848,7 @@
       </c>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
@@ -4850,7 +4859,7 @@
       </c>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
@@ -4861,7 +4870,7 @@
       </c>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
@@ -4872,7 +4881,7 @@
       </c>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
@@ -4883,7 +4892,7 @@
       </c>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
     </row>
   </sheetData>

--- a/Collections/США/Юбилейные 1$ США из недрагоценных металлов.xlsx
+++ b/Collections/США/Юбилейные 1$ США из недрагоценных металлов.xlsx
@@ -15,6 +15,7 @@
     <sheet name="&quot;Президенты США&quot;" sheetId="1" r:id="rId1"/>
     <sheet name="&quot;Доллар Сакагвеи&quot;" sheetId="2" r:id="rId2"/>
     <sheet name="&quot;Американские инновации&quot;" sheetId="3" r:id="rId3"/>
+    <sheet name="Ссылки" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
   <si>
     <t>№</t>
   </si>
@@ -190,20 +191,206 @@
     <t>-</t>
   </si>
   <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>Классификация звезд, Энни Кэннон</t>
-  </si>
-  <si>
     <t>Вакцина против полиомиелита</t>
+  </si>
+  <si>
+    <t>Денвер(D)</t>
+  </si>
+  <si>
+    <t>Классификация звезд</t>
+  </si>
+  <si>
+    <t>https://www.usmint.gov/learn/coin-and-medal-programs/american-innovation-dollar-coins</t>
+  </si>
+  <si>
+    <t>Вводная монета</t>
+  </si>
+  <si>
+    <t>Лампочка накаливания</t>
+  </si>
+  <si>
+    <t>Trustees’ Garden</t>
+  </si>
+  <si>
+    <t>Штат</t>
+  </si>
+  <si>
+    <t> Делавэр</t>
+  </si>
+  <si>
+    <t> Пенсильвания</t>
+  </si>
+  <si>
+    <t> Нью-Джерси</t>
+  </si>
+  <si>
+    <t> Джорджия</t>
+  </si>
+  <si>
+    <t> Коннектикут</t>
+  </si>
+  <si>
+    <t> Массачусетс</t>
+  </si>
+  <si>
+    <t> Мэриленд</t>
+  </si>
+  <si>
+    <t> Южная Каролина</t>
+  </si>
+  <si>
+    <t> Нью-Гэмпшир</t>
+  </si>
+  <si>
+    <t> Виргиния</t>
+  </si>
+  <si>
+    <t> Нью-Йорк</t>
+  </si>
+  <si>
+    <t> Северная Каролина</t>
+  </si>
+  <si>
+    <t> Род-Айленд</t>
+  </si>
+  <si>
+    <t> Вермонт</t>
+  </si>
+  <si>
+    <t> Кентукки</t>
+  </si>
+  <si>
+    <t> Теннесси</t>
+  </si>
+  <si>
+    <t> Огайо</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Луизиана</t>
+  </si>
+  <si>
+    <t> Индиана</t>
+  </si>
+  <si>
+    <t> Миссисипи</t>
+  </si>
+  <si>
+    <t> Иллинойс</t>
+  </si>
+  <si>
+    <t> Алабама</t>
+  </si>
+  <si>
+    <t> Мэн</t>
+  </si>
+  <si>
+    <t> Миссури</t>
+  </si>
+  <si>
+    <t> Арканзас</t>
+  </si>
+  <si>
+    <t> Мичиган</t>
+  </si>
+  <si>
+    <t> Флорида</t>
+  </si>
+  <si>
+    <t> Техас</t>
+  </si>
+  <si>
+    <t> Айова</t>
+  </si>
+  <si>
+    <t> Висконсин</t>
+  </si>
+  <si>
+    <t> Калифорния</t>
+  </si>
+  <si>
+    <t> Миннесота</t>
+  </si>
+  <si>
+    <t> Орегон</t>
+  </si>
+  <si>
+    <t> Канзас</t>
+  </si>
+  <si>
+    <t> Западная Виргиния</t>
+  </si>
+  <si>
+    <t> Невада</t>
+  </si>
+  <si>
+    <t> Небраска</t>
+  </si>
+  <si>
+    <t> Колорадо</t>
+  </si>
+  <si>
+    <t> Северная Дакота</t>
+  </si>
+  <si>
+    <t> Южная Дакота</t>
+  </si>
+  <si>
+    <t> Монтана</t>
+  </si>
+  <si>
+    <t> Вашингтон</t>
+  </si>
+  <si>
+    <t> Айдахо</t>
+  </si>
+  <si>
+    <t> Вайоминг</t>
+  </si>
+  <si>
+    <t> Юта</t>
+  </si>
+  <si>
+    <t> Оклахома</t>
+  </si>
+  <si>
+    <t> Нью-Мексико</t>
+  </si>
+  <si>
+    <t> Аризона</t>
+  </si>
+  <si>
+    <t> Аляска</t>
+  </si>
+  <si>
+    <t> Гавайи</t>
+  </si>
+  <si>
+    <t> Округ Колумбия</t>
+  </si>
+  <si>
+    <t> Пуэрто-Рико</t>
+  </si>
+  <si>
+    <t> Гуам</t>
+  </si>
+  <si>
+    <t> Американское Самоа</t>
+  </si>
+  <si>
+    <t> Американские Виргинские острова</t>
+  </si>
+  <si>
+    <t> Северные Марианские острова</t>
+  </si>
+  <si>
+    <t>Название монеты</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -233,8 +420,29 @@
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,8 +467,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FFB8CCE4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -346,11 +560,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -383,6 +627,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -407,11 +654,700 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -861,10 +1797,10 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -878,30 +1814,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -917,11 +1853,11 @@
         <v>2</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f t="shared" ref="E3:E46" si="0">IF(OR(AND(C3&gt;0,D3&gt;0),AND(C3&gt;0,D3="0"),AND(D3&gt;0,C3="0")),"OK",IF(OR(AND(C3=0,D3=0),AND(C3=0,D3="0"),AND(D3=0,C3="0")),"!!!!!!!!!!",""))</f>
+        <f>IF(OR(AND(C3&gt;0,D3&gt;0),AND(C3&gt;0,D3="0"),AND(D3&gt;0,C3="0")),"OK",IF(OR(AND(C3=0,D3=0),AND(C3=0,D3="0"),AND(D3=0,C3="0")),"!!!!!!!!!!",""))</f>
         <v>OK</v>
       </c>
       <c r="F3" s="8" t="str">
-        <f t="shared" ref="F3:F46" si="1">IF(OR(AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <f t="shared" ref="F3:F46" si="0">IF(OR(AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v>Есть на обмен</v>
       </c>
     </row>
@@ -939,11 +1875,11 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="str">
+        <f>IF(OR(AND(C4&gt;0,D4&gt;0),AND(C4&gt;0,D4="0"),AND(D4&gt;0,C4="0")),"OK",IF(OR(AND(C4=0,D4=0),AND(C4=0,D4="0"),AND(D4=0,C4="0")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="F4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F4" s="8" t="str">
-        <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
@@ -961,11 +1897,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="str">
+        <f t="shared" ref="E3:E46" si="1">IF(OR(AND(C5&gt;0,D5&gt;0),AND(C5&gt;0,D5="0"),AND(D5&gt;0,C5="0")),"OK",IF(OR(AND(C5=0,D5=0),AND(C5=0,D5="0"),AND(D5=0,C5="0")),"!!!!!!!!!!",""))</f>
+        <v>OK</v>
+      </c>
+      <c r="F5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F5" s="8" t="str">
-        <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
@@ -983,11 +1919,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="F6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F6" s="8" t="str">
-        <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
@@ -1005,11 +1941,11 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F7" s="8" t="str">
-        <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
@@ -1027,11 +1963,11 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="8" t="str">
-        <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
@@ -1049,11 +1985,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F9" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1071,11 +2007,11 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F10" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1093,11 +2029,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F11" s="8" t="str">
-        <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
@@ -1115,11 +2051,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F12" s="8" t="str">
-        <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
@@ -1137,11 +2073,11 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F13" s="8" t="str">
-        <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
@@ -1159,11 +2095,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F14" s="8" t="str">
-        <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
@@ -1181,11 +2117,11 @@
         <v>1</v>
       </c>
       <c r="E15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1203,11 +2139,11 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F16" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1225,11 +2161,11 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F17" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1247,11 +2183,11 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F18" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1269,11 +2205,11 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F19" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1291,11 +2227,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F20" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1313,11 +2249,11 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F21" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1335,11 +2271,11 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F22" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F22" s="8" t="str">
-        <f t="shared" si="1"/>
         <v>Есть на обмен</v>
       </c>
     </row>
@@ -1357,11 +2293,11 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F23" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1379,11 +2315,11 @@
         <v>1</v>
       </c>
       <c r="E24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F24" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1401,11 +2337,11 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F25" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1423,11 +2359,11 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F26" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F26" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1445,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F27" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F27" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1467,11 +2403,11 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F28" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F28" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1489,11 +2425,11 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F29" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F29" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1511,11 +2447,11 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F30" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F30" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1533,11 +2469,11 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F31" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F31" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1555,11 +2491,11 @@
         <v>1</v>
       </c>
       <c r="E32" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F32" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F32" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1577,11 +2513,11 @@
         <v>0</v>
       </c>
       <c r="E33" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F33" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F33" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1599,11 +2535,11 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F34" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F34" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1621,11 +2557,11 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F35" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F35" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1643,11 +2579,11 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F36" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F36" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1665,11 +2601,11 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F37" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F37" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1687,11 +2623,11 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F38" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F38" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1709,11 +2645,11 @@
         <v>0</v>
       </c>
       <c r="E39" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F39" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F39" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1731,11 +2667,11 @@
         <v>0</v>
       </c>
       <c r="E40" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F40" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F40" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1753,11 +2689,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F41" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F41" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1775,11 +2711,11 @@
         <v>0</v>
       </c>
       <c r="E42" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F42" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F42" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1797,11 +2733,11 @@
         <v>0</v>
       </c>
       <c r="E43" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F43" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F43" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1819,11 +2755,11 @@
         <v>0</v>
       </c>
       <c r="E44" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F44" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F44" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1841,11 +2777,11 @@
         <v>0</v>
       </c>
       <c r="E45" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F45" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F45" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1863,11 +2799,11 @@
         <v>0</v>
       </c>
       <c r="E46" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="F46" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="F46" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2835,22 +3771,22 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E46">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E46">
-    <cfRule type="containsBlanks" dxfId="12" priority="2">
+    <cfRule type="containsBlanks" dxfId="74" priority="2">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E46">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="73" priority="3">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D46">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2879,7 +3815,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2892,20 +3828,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2915,7 +3851,7 @@
       <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -3270,7 +4206,7 @@
         <v>52</v>
       </c>
       <c r="E16" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(B16&gt;0,U16="2"),AND(B16="-",U16="2")),"OK",IF(OR(AND(B16 = 0,U16 ="0"),AND(U16 = "0",B16="-")),"!!!!!!!!!!",""))</f>
         <v>!!!!!!!!!!</v>
       </c>
       <c r="F16" s="8" t="str">
@@ -4298,7 +5234,7 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:D17">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4315,27 +5251,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D17">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D17">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E17">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="68" priority="5" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E17">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="67" priority="6">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E17">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="66" priority="7">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4346,568 +5282,1394 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="47" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="E2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>2018</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="str">
-        <f t="shared" ref="E3:E46" si="0">IF(OR(AND(B3&gt;0,U3="2"),AND(B3="-",U3="2")),"OK",IF(OR(AND(B3 = 0,U3 ="0"),AND(U3 = "0",B3="-")),"!!!!!!!!!!",""))</f>
-        <v/>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B3" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="27">
+        <v>0</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f t="shared" ref="F3:F7" si="0">IF(OR(AND(D3&gt;0,E3&gt;0),AND(D3&gt;0,E3="0"),AND(E3&gt;0,D3="0")),"OK",IF(OR(AND(D3=0,E3=0),AND(D3=0,E3="0"),AND(E3=0,D3="0")),"!!!!!!!!!!",""))</f>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
         <v>2019</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6">
+      <c r="B4" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="str">
+      <c r="F4" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2019</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
+      <c r="B5" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="str">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2019</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="str">
+      <c r="B6" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32">
         <v>2019</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="str">
+      <c r="B7" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="34">
+        <v>0</v>
+      </c>
+      <c r="E7" s="34">
+        <v>0</v>
+      </c>
+      <c r="F7" s="35" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="29"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="24"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="24"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7" t="str">
+        <f>IF(OR(AND(B14&gt;0,T14="2"),AND(B14="-",T14="2")),"OK",IF(OR(AND(B14 = 0,T14 ="0"),AND(T14 = "0",B14="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35" t="str">
+        <f>IF(OR(AND(B15&gt;0,T15="2"),AND(B15="-",T15="2")),"OK",IF(OR(AND(B15 = 0,T15 ="0"),AND(T15 = "0",B15="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31" t="str">
+        <f>IF(OR(AND(B16&gt;0,T16="2"),AND(B16="-",T16="2")),"OK",IF(OR(AND(B16 = 0,T16 ="0"),AND(T16 = "0",B16="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7" t="str">
+        <f>IF(OR(AND(B17&gt;0,T17="2"),AND(B17="-",T17="2")),"OK",IF(OR(AND(B17 = 0,T17 ="0"),AND(T17 = "0",B17="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="24"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7" t="str">
+        <f>IF(OR(AND(B18&gt;0,T18="2"),AND(B18="-",T18="2")),"OK",IF(OR(AND(B18 = 0,T18 ="0"),AND(T18 = "0",B18="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35" t="str">
+        <f>IF(OR(AND(B19&gt;0,T19="2"),AND(B19="-",T19="2")),"OK",IF(OR(AND(B19 = 0,T19 ="0"),AND(T19 = "0",B19="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31" t="str">
+        <f>IF(OR(AND(B20&gt;0,T20="2"),AND(B20="-",T20="2")),"OK",IF(OR(AND(B20 = 0,T20 ="0"),AND(T20 = "0",B20="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7" t="str">
+        <f>IF(OR(AND(B21&gt;0,T21="2"),AND(B21="-",T21="2")),"OK",IF(OR(AND(B21 = 0,T21 ="0"),AND(T21 = "0",B21="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="24"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7" t="str">
+        <f>IF(OR(AND(B22&gt;0,T22="2"),AND(B22="-",T22="2")),"OK",IF(OR(AND(B22 = 0,T22 ="0"),AND(T22 = "0",B22="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35" t="str">
+        <f>IF(OR(AND(B23&gt;0,T23="2"),AND(B23="-",T23="2")),"OK",IF(OR(AND(B23 = 0,T23 ="0"),AND(T23 = "0",B23="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
+        <v>2024</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31" t="str">
+        <f>IF(OR(AND(B24&gt;0,T24="2"),AND(B24="-",T24="2")),"OK",IF(OR(AND(B24 = 0,T24 ="0"),AND(T24 = "0",B24="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7" t="str">
+        <f>IF(OR(AND(B25&gt;0,T25="2"),AND(B25="-",T25="2")),"OK",IF(OR(AND(B25 = 0,T25 ="0"),AND(T25 = "0",B25="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="24"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7" t="str">
+        <f>IF(OR(AND(B26&gt;0,T26="2"),AND(B26="-",T26="2")),"OK",IF(OR(AND(B26 = 0,T26 ="0"),AND(T26 = "0",B26="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32">
+        <v>2024</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35" t="str">
+        <f>IF(OR(AND(B27&gt;0,T27="2"),AND(B27="-",T27="2")),"OK",IF(OR(AND(B27 = 0,T27 ="0"),AND(T27 = "0",B27="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="28">
+        <v>2025</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31" t="str">
+        <f>IF(OR(AND(B28&gt;0,T28="2"),AND(B28="-",T28="2")),"OK",IF(OR(AND(B28 = 0,T28 ="0"),AND(T28 = "0",B28="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7" t="str">
+        <f>IF(OR(AND(B29&gt;0,T29="2"),AND(B29="-",T29="2")),"OK",IF(OR(AND(B29 = 0,T29 ="0"),AND(T29 = "0",B29="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="24"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7" t="str">
+        <f>IF(OR(AND(B30&gt;0,T30="2"),AND(B30="-",T30="2")),"OK",IF(OR(AND(B30 = 0,T30 ="0"),AND(T30 = "0",B30="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32">
+        <v>2025</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35" t="str">
+        <f>IF(OR(AND(B31&gt;0,T31="2"),AND(B31="-",T31="2")),"OK",IF(OR(AND(B31 = 0,T31 ="0"),AND(T31 = "0",B31="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
+        <v>2026</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31" t="str">
+        <f>IF(OR(AND(B32&gt;0,T32="2"),AND(B32="-",T32="2")),"OK",IF(OR(AND(B32 = 0,T32 ="0"),AND(T32 = "0",B32="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7" t="str">
+        <f>IF(OR(AND(B33&gt;0,T33="2"),AND(B33="-",T33="2")),"OK",IF(OR(AND(B33 = 0,T33 ="0"),AND(T33 = "0",B33="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="24"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7" t="str">
+        <f>IF(OR(AND(B34&gt;0,T34="2"),AND(B34="-",T34="2")),"OK",IF(OR(AND(B34 = 0,T34 ="0"),AND(T34 = "0",B34="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="32">
+        <v>2026</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35" t="str">
+        <f>IF(OR(AND(B35&gt;0,T35="2"),AND(B35="-",T35="2")),"OK",IF(OR(AND(B35 = 0,T35 ="0"),AND(T35 = "0",B35="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
+        <v>2027</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31" t="str">
+        <f>IF(OR(AND(B36&gt;0,T36="2"),AND(B36="-",T36="2")),"OK",IF(OR(AND(B36 = 0,T36 ="0"),AND(T36 = "0",B36="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2027</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7" t="str">
+        <f>IF(OR(AND(B37&gt;0,T37="2"),AND(B37="-",T37="2")),"OK",IF(OR(AND(B37 = 0,T37 ="0"),AND(T37 = "0",B37="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2027</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="24"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7" t="str">
+        <f>IF(OR(AND(B38&gt;0,T38="2"),AND(B38="-",T38="2")),"OK",IF(OR(AND(B38 = 0,T38 ="0"),AND(T38 = "0",B38="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="32">
+        <v>2027</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="35" t="str">
+        <f>IF(OR(AND(B39&gt;0,T39="2"),AND(B39="-",T39="2")),"OK",IF(OR(AND(B39 = 0,T39 ="0"),AND(T39 = "0",B39="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="28">
+        <v>2028</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31" t="str">
+        <f>IF(OR(AND(B40&gt;0,T40="2"),AND(B40="-",T40="2")),"OK",IF(OR(AND(B40 = 0,T40 ="0"),AND(T40 = "0",B40="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2028</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7" t="str">
+        <f>IF(OR(AND(B41&gt;0,T41="2"),AND(B41="-",T41="2")),"OK",IF(OR(AND(B41 = 0,T41 ="0"),AND(T41 = "0",B41="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2028</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="24"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7" t="str">
+        <f>IF(OR(AND(B42&gt;0,T42="2"),AND(B42="-",T42="2")),"OK",IF(OR(AND(B42 = 0,T42 ="0"),AND(T42 = "0",B42="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="32">
+        <v>2028</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="35" t="str">
+        <f>IF(OR(AND(B43&gt;0,T43="2"),AND(B43="-",T43="2")),"OK",IF(OR(AND(B43 = 0,T43 ="0"),AND(T43 = "0",B43="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="28">
+        <v>2029</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31" t="str">
+        <f>IF(OR(AND(B44&gt;0,T44="2"),AND(B44="-",T44="2")),"OK",IF(OR(AND(B44 = 0,T44 ="0"),AND(T44 = "0",B44="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2029</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="5"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7" t="str">
+        <f>IF(OR(AND(B45&gt;0,T45="2"),AND(B45="-",T45="2")),"OK",IF(OR(AND(B45 = 0,T45 ="0"),AND(T45 = "0",B45="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2029</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="24"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="32">
+        <v>2029</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="28">
+        <v>2030</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>2030</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>2030</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="32">
+        <v>2030</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="33"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="28">
+        <v>2031</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>2031</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>2031</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="32">
+        <v>2031</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="33"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="28">
+        <v>2032</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="40"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>2032</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>2032</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="32">
+        <v>2032</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:D46">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(C3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D46">
+  <conditionalFormatting sqref="D3:E7 D56:E59">
+    <cfRule type="containsText" dxfId="65" priority="78" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E7 D56:E59">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F7 F56:F59">
+    <cfRule type="containsText" dxfId="64" priority="72" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH(("!"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F7 F56:F59">
+    <cfRule type="containsBlanks" dxfId="63" priority="73">
+      <formula>LEN(TRIM(F5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F7 F56:F59">
+    <cfRule type="notContainsBlanks" dxfId="62" priority="74">
+      <formula>LEN(TRIM(F5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:F55">
+    <cfRule type="containsText" dxfId="61" priority="12" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH(("!"),(F52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E11">
+    <cfRule type="containsText" dxfId="60" priority="70" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E11">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F11">
+    <cfRule type="containsText" dxfId="59" priority="67" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH(("!"),(F9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F11">
+    <cfRule type="containsBlanks" dxfId="58" priority="68">
+      <formula>LEN(TRIM(F9))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F11">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="69">
+      <formula>LEN(TRIM(F9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:E15">
+    <cfRule type="containsText" dxfId="56" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:E15">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F15">
+    <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH(("!"),(F12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F15">
+    <cfRule type="containsBlanks" dxfId="54" priority="63">
+      <formula>LEN(TRIM(F12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F15">
+    <cfRule type="notContainsBlanks" dxfId="53" priority="64">
+      <formula>LEN(TRIM(F12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:E19">
+    <cfRule type="containsText" dxfId="52" priority="60" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:E19">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F19">
+    <cfRule type="containsText" dxfId="51" priority="57" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH(("!"),(F16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F19">
+    <cfRule type="containsBlanks" dxfId="50" priority="58">
+      <formula>LEN(TRIM(F16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F19">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="59">
+      <formula>LEN(TRIM(F16))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E23">
+    <cfRule type="containsText" dxfId="48" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E23">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F23">
+    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH(("!"),(F20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F23">
+    <cfRule type="containsBlanks" dxfId="46" priority="53">
+      <formula>LEN(TRIM(F20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F23">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="54">
+      <formula>LEN(TRIM(F20))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:E27">
+    <cfRule type="containsText" dxfId="44" priority="50" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:E27">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F27">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH(("!"),(F24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F27">
+    <cfRule type="containsBlanks" dxfId="42" priority="48">
+      <formula>LEN(TRIM(F24))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F27">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="49">
+      <formula>LEN(TRIM(F24))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:E31">
+    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:E31">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:F31">
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH(("!"),(F28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:F31">
+    <cfRule type="containsBlanks" dxfId="38" priority="43">
+      <formula>LEN(TRIM(F28))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:F31">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="44">
+      <formula>LEN(TRIM(F28))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:E35">
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:E35">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F35">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH(("!"),(F32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F35">
+    <cfRule type="containsBlanks" dxfId="34" priority="38">
+      <formula>LEN(TRIM(F32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F35">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="39">
+      <formula>LEN(TRIM(F32))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:E39">
+    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:E39">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:F39">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH(("!"),(F36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:F39">
+    <cfRule type="containsBlanks" dxfId="30" priority="33">
+      <formula>LEN(TRIM(F36))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:F39">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="34">
+      <formula>LEN(TRIM(F36))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:E43">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:E43">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:F43">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH(("!"),(F40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:F43">
+    <cfRule type="containsBlanks" dxfId="26" priority="28">
+      <formula>LEN(TRIM(F40))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:F43">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="29">
+      <formula>LEN(TRIM(F40))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:E47">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:E47">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:F47">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH(("!"),(F44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:F47">
+    <cfRule type="containsBlanks" dxfId="22" priority="23">
+      <formula>LEN(TRIM(F44))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:F47">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="24">
+      <formula>LEN(TRIM(F44))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:E51">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:E51">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:F51">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH(("!"),(F48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:F51">
+    <cfRule type="containsBlanks" dxfId="18" priority="18">
+      <formula>LEN(TRIM(F48))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:F51">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="19">
+      <formula>LEN(TRIM(F48))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:E55">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:E55">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:F55">
+    <cfRule type="containsBlanks" dxfId="15" priority="13">
+      <formula>LEN(TRIM(F52))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:F55">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="14">
+      <formula>LEN(TRIM(F52))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH(("!"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsBlanks" dxfId="12" priority="10">
+      <formula>LEN(TRIM(F3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="11">
+      <formula>LEN(TRIM(F3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH(("!"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsBlanks" dxfId="1" priority="5">
+      <formula>LEN(TRIM(F8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="6">
+      <formula>LEN(TRIM(F8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4919,22 +6681,42 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E46">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="!">
-      <formula>NOT(ISERROR(SEARCH(("!"),(E3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E46">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(E3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E46">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E3))&gt;0</formula>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH(("!"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
+      <formula>LEN(TRIM(F4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
+      <formula>LEN(TRIM(F4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Collections/США/Юбилейные 1$ США из недрагоценных металлов.xlsx
+++ b/Collections/США/Юбилейные 1$ США из недрагоценных металлов.xlsx
@@ -630,6 +630,56 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -654,76 +704,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="72">
     <dxf>
       <font>
         <b/>
@@ -753,46 +753,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF99"/>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB8E08C"/>
-          <bgColor rgb="FFB8E08C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE5B8B7"/>
-          <bgColor rgb="FFE5B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1800,7 +1760,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:E3"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1814,30 +1774,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1897,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f t="shared" ref="E3:E46" si="1">IF(OR(AND(C5&gt;0,D5&gt;0),AND(C5&gt;0,D5="0"),AND(D5&gt;0,C5="0")),"OK",IF(OR(AND(C5=0,D5=0),AND(C5=0,D5="0"),AND(D5=0,C5="0")),"!!!!!!!!!!",""))</f>
+        <f t="shared" ref="E5:E46" si="1">IF(OR(AND(C5&gt;0,D5&gt;0),AND(C5&gt;0,D5="0"),AND(D5&gt;0,C5="0")),"OK",IF(OR(AND(C5=0,D5=0),AND(C5=0,D5="0"),AND(D5=0,C5="0")),"!!!!!!!!!!",""))</f>
         <v>OK</v>
       </c>
       <c r="F5" s="8" t="str">
@@ -3771,22 +3731,22 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E46">
-    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E46">
-    <cfRule type="containsBlanks" dxfId="74" priority="2">
+    <cfRule type="containsBlanks" dxfId="70" priority="2">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E46">
-    <cfRule type="notContainsBlanks" dxfId="73" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="69" priority="3">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D46">
-    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3828,20 +3788,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3851,7 +3811,7 @@
       <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -5234,7 +5194,7 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:D17">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5251,27 +5211,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D17">
-    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D17">
-    <cfRule type="cellIs" dxfId="69" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E17">
-    <cfRule type="containsText" dxfId="68" priority="5" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E17">
-    <cfRule type="containsBlanks" dxfId="67" priority="6">
+    <cfRule type="containsBlanks" dxfId="63" priority="6">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E17">
-    <cfRule type="notContainsBlanks" dxfId="66" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="62" priority="7">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5285,13 +5245,13 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="32" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="7.140625" customWidth="1"/>
@@ -5299,49 +5259,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="23" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2018</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="27">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="str">
@@ -5351,22 +5311,22 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="17">
         <v>2019</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="30">
-        <v>0</v>
-      </c>
-      <c r="E4" s="30">
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="31" t="str">
+      <c r="F4" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5376,7 +5336,7 @@
       <c r="A5" s="3">
         <v>2019</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -5398,54 +5358,54 @@
       <c r="A6" s="3">
         <v>2019</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32">
+      <c r="A7" s="21">
         <v>2019</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="34">
-        <v>0</v>
-      </c>
-      <c r="E7" s="34">
-        <v>0</v>
-      </c>
-      <c r="F7" s="35" t="str">
+      <c r="D7" s="23">
+        <v>0</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0</v>
+      </c>
+      <c r="F7" s="24" t="str">
         <f t="shared" si="0"/>
         <v>!!!!!!!!!!</v>
       </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="17">
         <v>2020</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
@@ -5455,7 +5415,7 @@
       <c r="A9" s="3">
         <v>2020</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="28" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="5"/>
@@ -5468,46 +5428,46 @@
       <c r="A10" s="3">
         <v>2020</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32">
+      <c r="A11" s="21">
         <v>2020</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="17">
         <v>2021</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2021</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="28" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="5"/>
@@ -5520,46 +5480,46 @@
       <c r="A14" s="3">
         <v>2021</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7" t="str">
-        <f>IF(OR(AND(B14&gt;0,T14="2"),AND(B14="-",T14="2")),"OK",IF(OR(AND(B14 = 0,T14 ="0"),AND(T14 = "0",B14="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" ref="F14:F45" si="1">IF(OR(AND(B14&gt;0,T14="2"),AND(B14="-",T14="2")),"OK",IF(OR(AND(B14 = 0,T14 ="0"),AND(T14 = "0",B14="-")),"!!!!!!!!!!",""))</f>
         <v/>
       </c>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32">
+      <c r="A15" s="21">
         <v>2021</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35" t="str">
-        <f>IF(OR(AND(B15&gt;0,T15="2"),AND(B15="-",T15="2")),"OK",IF(OR(AND(B15 = 0,T15 ="0"),AND(T15 = "0",B15="-")),"!!!!!!!!!!",""))</f>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16" s="17">
         <v>2022</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31" t="str">
-        <f>IF(OR(AND(B16&gt;0,T16="2"),AND(B16="-",T16="2")),"OK",IF(OR(AND(B16 = 0,T16 ="0"),AND(T16 = "0",B16="-")),"!!!!!!!!!!",""))</f>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G16" s="8"/>
@@ -5568,14 +5528,14 @@
       <c r="A17" s="3">
         <v>2022</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="7" t="str">
-        <f>IF(OR(AND(B17&gt;0,T17="2"),AND(B17="-",T17="2")),"OK",IF(OR(AND(B17 = 0,T17 ="0"),AND(T17 = "0",B17="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G17" s="8"/>
@@ -5584,46 +5544,46 @@
       <c r="A18" s="3">
         <v>2022</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="7" t="str">
-        <f>IF(OR(AND(B18&gt;0,T18="2"),AND(B18="-",T18="2")),"OK",IF(OR(AND(B18 = 0,T18 ="0"),AND(T18 = "0",B18="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32">
+      <c r="A19" s="21">
         <v>2022</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35" t="str">
-        <f>IF(OR(AND(B19&gt;0,T19="2"),AND(B19="-",T19="2")),"OK",IF(OR(AND(B19 = 0,T19 ="0"),AND(T19 = "0",B19="-")),"!!!!!!!!!!",""))</f>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20" s="17">
         <v>2023</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31" t="str">
-        <f>IF(OR(AND(B20&gt;0,T20="2"),AND(B20="-",T20="2")),"OK",IF(OR(AND(B20 = 0,T20 ="0"),AND(T20 = "0",B20="-")),"!!!!!!!!!!",""))</f>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G20" s="8"/>
@@ -5632,14 +5592,14 @@
       <c r="A21" s="3">
         <v>2023</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="28" t="s">
         <v>78</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7" t="str">
-        <f>IF(OR(AND(B21&gt;0,T21="2"),AND(B21="-",T21="2")),"OK",IF(OR(AND(B21 = 0,T21 ="0"),AND(T21 = "0",B21="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G21" s="8"/>
@@ -5648,46 +5608,46 @@
       <c r="A22" s="3">
         <v>2023</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7" t="str">
-        <f>IF(OR(AND(B22&gt;0,T22="2"),AND(B22="-",T22="2")),"OK",IF(OR(AND(B22 = 0,T22 ="0"),AND(T22 = "0",B22="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32">
+      <c r="A23" s="21">
         <v>2023</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35" t="str">
-        <f>IF(OR(AND(B23&gt;0,T23="2"),AND(B23="-",T23="2")),"OK",IF(OR(AND(B23 = 0,T23 ="0"),AND(T23 = "0",B23="-")),"!!!!!!!!!!",""))</f>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+      <c r="A24" s="17">
         <v>2024</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31" t="str">
-        <f>IF(OR(AND(B24&gt;0,T24="2"),AND(B24="-",T24="2")),"OK",IF(OR(AND(B24 = 0,T24 ="0"),AND(T24 = "0",B24="-")),"!!!!!!!!!!",""))</f>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G24" s="8"/>
@@ -5696,14 +5656,14 @@
       <c r="A25" s="3">
         <v>2024</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="28" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="7" t="str">
-        <f>IF(OR(AND(B25&gt;0,T25="2"),AND(B25="-",T25="2")),"OK",IF(OR(AND(B25 = 0,T25 ="0"),AND(T25 = "0",B25="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G25" s="8"/>
@@ -5712,46 +5672,46 @@
       <c r="A26" s="3">
         <v>2024</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="7" t="str">
-        <f>IF(OR(AND(B26&gt;0,T26="2"),AND(B26="-",T26="2")),"OK",IF(OR(AND(B26 = 0,T26 ="0"),AND(T26 = "0",B26="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32">
+      <c r="A27" s="21">
         <v>2024</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35" t="str">
-        <f>IF(OR(AND(B27&gt;0,T27="2"),AND(B27="-",T27="2")),"OK",IF(OR(AND(B27 = 0,T27 ="0"),AND(T27 = "0",B27="-")),"!!!!!!!!!!",""))</f>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
+      <c r="A28" s="17">
         <v>2025</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31" t="str">
-        <f>IF(OR(AND(B28&gt;0,T28="2"),AND(B28="-",T28="2")),"OK",IF(OR(AND(B28 = 0,T28 ="0"),AND(T28 = "0",B28="-")),"!!!!!!!!!!",""))</f>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G28" s="8"/>
@@ -5760,14 +5720,14 @@
       <c r="A29" s="3">
         <v>2025</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="28" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="7" t="str">
-        <f>IF(OR(AND(B29&gt;0,T29="2"),AND(B29="-",T29="2")),"OK",IF(OR(AND(B29 = 0,T29 ="0"),AND(T29 = "0",B29="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G29" s="8"/>
@@ -5776,46 +5736,46 @@
       <c r="A30" s="3">
         <v>2025</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="24"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="7" t="str">
-        <f>IF(OR(AND(B30&gt;0,T30="2"),AND(B30="-",T30="2")),"OK",IF(OR(AND(B30 = 0,T30 ="0"),AND(T30 = "0",B30="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32">
+      <c r="A31" s="21">
         <v>2025</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35" t="str">
-        <f>IF(OR(AND(B31&gt;0,T31="2"),AND(B31="-",T31="2")),"OK",IF(OR(AND(B31 = 0,T31 ="0"),AND(T31 = "0",B31="-")),"!!!!!!!!!!",""))</f>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
+      <c r="A32" s="17">
         <v>2026</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31" t="str">
-        <f>IF(OR(AND(B32&gt;0,T32="2"),AND(B32="-",T32="2")),"OK",IF(OR(AND(B32 = 0,T32 ="0"),AND(T32 = "0",B32="-")),"!!!!!!!!!!",""))</f>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G32" s="8"/>
@@ -5824,14 +5784,14 @@
       <c r="A33" s="3">
         <v>2026</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="28" t="s">
         <v>90</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="7" t="str">
-        <f>IF(OR(AND(B33&gt;0,T33="2"),AND(B33="-",T33="2")),"OK",IF(OR(AND(B33 = 0,T33 ="0"),AND(T33 = "0",B33="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G33" s="8"/>
@@ -5840,46 +5800,46 @@
       <c r="A34" s="3">
         <v>2026</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="str">
-        <f>IF(OR(AND(B34&gt;0,T34="2"),AND(B34="-",T34="2")),"OK",IF(OR(AND(B34 = 0,T34 ="0"),AND(T34 = "0",B34="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32">
+      <c r="A35" s="21">
         <v>2026</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35" t="str">
-        <f>IF(OR(AND(B35&gt;0,T35="2"),AND(B35="-",T35="2")),"OK",IF(OR(AND(B35 = 0,T35 ="0"),AND(T35 = "0",B35="-")),"!!!!!!!!!!",""))</f>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
+      <c r="A36" s="17">
         <v>2027</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31" t="str">
-        <f>IF(OR(AND(B36&gt;0,T36="2"),AND(B36="-",T36="2")),"OK",IF(OR(AND(B36 = 0,T36 ="0"),AND(T36 = "0",B36="-")),"!!!!!!!!!!",""))</f>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G36" s="8"/>
@@ -5888,14 +5848,14 @@
       <c r="A37" s="3">
         <v>2027</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="28" t="s">
         <v>94</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7" t="str">
-        <f>IF(OR(AND(B37&gt;0,T37="2"),AND(B37="-",T37="2")),"OK",IF(OR(AND(B37 = 0,T37 ="0"),AND(T37 = "0",B37="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G37" s="8"/>
@@ -5904,46 +5864,46 @@
       <c r="A38" s="3">
         <v>2027</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="24"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="7" t="str">
-        <f>IF(OR(AND(B38&gt;0,T38="2"),AND(B38="-",T38="2")),"OK",IF(OR(AND(B38 = 0,T38 ="0"),AND(T38 = "0",B38="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32">
+      <c r="A39" s="21">
         <v>2027</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35" t="str">
-        <f>IF(OR(AND(B39&gt;0,T39="2"),AND(B39="-",T39="2")),"OK",IF(OR(AND(B39 = 0,T39 ="0"),AND(T39 = "0",B39="-")),"!!!!!!!!!!",""))</f>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="24" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="28">
+      <c r="A40" s="17">
         <v>2028</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31" t="str">
-        <f>IF(OR(AND(B40&gt;0,T40="2"),AND(B40="-",T40="2")),"OK",IF(OR(AND(B40 = 0,T40 ="0"),AND(T40 = "0",B40="-")),"!!!!!!!!!!",""))</f>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G40" s="8"/>
@@ -5952,14 +5912,14 @@
       <c r="A41" s="3">
         <v>2028</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="28" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="7" t="str">
-        <f>IF(OR(AND(B41&gt;0,T41="2"),AND(B41="-",T41="2")),"OK",IF(OR(AND(B41 = 0,T41 ="0"),AND(T41 = "0",B41="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G41" s="8"/>
@@ -5968,46 +5928,46 @@
       <c r="A42" s="3">
         <v>2028</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="24"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="7" t="str">
-        <f>IF(OR(AND(B42&gt;0,T42="2"),AND(B42="-",T42="2")),"OK",IF(OR(AND(B42 = 0,T42 ="0"),AND(T42 = "0",B42="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32">
+      <c r="A43" s="21">
         <v>2028</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="35" t="str">
-        <f>IF(OR(AND(B43&gt;0,T43="2"),AND(B43="-",T43="2")),"OK",IF(OR(AND(B43 = 0,T43 ="0"),AND(T43 = "0",B43="-")),"!!!!!!!!!!",""))</f>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="24" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="28">
+      <c r="A44" s="17">
         <v>2029</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31" t="str">
-        <f>IF(OR(AND(B44&gt;0,T44="2"),AND(B44="-",T44="2")),"OK",IF(OR(AND(B44 = 0,T44 ="0"),AND(T44 = "0",B44="-")),"!!!!!!!!!!",""))</f>
+      <c r="C44" s="18"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G44" s="8"/>
@@ -6016,14 +5976,14 @@
       <c r="A45" s="3">
         <v>2029</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="28" t="s">
         <v>102</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7" t="str">
-        <f>IF(OR(AND(B45&gt;0,T45="2"),AND(B45="-",T45="2")),"OK",IF(OR(AND(B45 = 0,T45 ="0"),AND(T45 = "0",B45="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G45" s="8"/>
@@ -6032,46 +5992,46 @@
       <c r="A46" s="3">
         <v>2029</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="24"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="7"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
+      <c r="A47" s="21">
         <v>2029</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="35"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="24"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="28">
+      <c r="A48" s="17">
         <v>2030</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="31"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2030</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="28" t="s">
         <v>106</v>
       </c>
       <c r="C49" s="5"/>
@@ -6084,46 +6044,46 @@
       <c r="A50" s="3">
         <v>2030</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="24"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32">
+      <c r="A51" s="21">
         <v>2030</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="35"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
       <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="28">
+      <c r="A52" s="17">
         <v>2031</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="31"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
       <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2031</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="28" t="s">
         <v>110</v>
       </c>
       <c r="C53" s="5"/>
@@ -6136,46 +6096,46 @@
       <c r="A54" s="3">
         <v>2031</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="24"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="7"/>
       <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="32">
+      <c r="A55" s="21">
         <v>2031</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="35"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="24"/>
       <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="28">
+      <c r="A56" s="17">
         <v>2032</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="31"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
       <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2032</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="28" t="s">
         <v>114</v>
       </c>
       <c r="C57" s="5"/>
@@ -6188,7 +6148,7 @@
       <c r="A58" s="3">
         <v>2032</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="28" t="s">
         <v>115</v>
       </c>
       <c r="C58" s="5"/>
@@ -6198,16 +6158,16 @@
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32">
+      <c r="A59" s="21">
         <v>2032</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="35"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="24"/>
       <c r="G59" s="8"/>
     </row>
   </sheetData>
@@ -6219,7 +6179,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:E7 D56:E59">
-    <cfRule type="containsText" dxfId="65" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6236,27 +6196,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F7 F56:F59">
-    <cfRule type="containsText" dxfId="64" priority="72" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="60" priority="72" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F7 F56:F59">
-    <cfRule type="containsBlanks" dxfId="63" priority="73">
+    <cfRule type="containsBlanks" dxfId="59" priority="73">
       <formula>LEN(TRIM(F5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F7 F56:F59">
-    <cfRule type="notContainsBlanks" dxfId="62" priority="74">
+    <cfRule type="notContainsBlanks" dxfId="58" priority="74">
       <formula>LEN(TRIM(F5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:F55">
-    <cfRule type="containsText" dxfId="61" priority="12" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="57" priority="12" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F52))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E11">
-    <cfRule type="containsText" dxfId="60" priority="70" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="70" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6273,22 +6233,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F11">
-    <cfRule type="containsText" dxfId="59" priority="67" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="55" priority="67" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F11">
-    <cfRule type="containsBlanks" dxfId="58" priority="68">
+    <cfRule type="containsBlanks" dxfId="54" priority="68">
       <formula>LEN(TRIM(F9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F11">
-    <cfRule type="notContainsBlanks" dxfId="57" priority="69">
+    <cfRule type="notContainsBlanks" dxfId="53" priority="69">
       <formula>LEN(TRIM(F9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:E15">
-    <cfRule type="containsText" dxfId="56" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6305,22 +6265,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F15">
-    <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="51" priority="62" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F15">
-    <cfRule type="containsBlanks" dxfId="54" priority="63">
+    <cfRule type="containsBlanks" dxfId="50" priority="63">
       <formula>LEN(TRIM(F12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F15">
-    <cfRule type="notContainsBlanks" dxfId="53" priority="64">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="64">
       <formula>LEN(TRIM(F12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E19">
-    <cfRule type="containsText" dxfId="52" priority="60" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="60" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6337,22 +6297,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F19">
-    <cfRule type="containsText" dxfId="51" priority="57" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="47" priority="57" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F19">
-    <cfRule type="containsBlanks" dxfId="50" priority="58">
+    <cfRule type="containsBlanks" dxfId="46" priority="58">
       <formula>LEN(TRIM(F16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F19">
-    <cfRule type="notContainsBlanks" dxfId="49" priority="59">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="59">
       <formula>LEN(TRIM(F16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E23">
-    <cfRule type="containsText" dxfId="48" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6369,22 +6329,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F23">
-    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="43" priority="52" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F23">
-    <cfRule type="containsBlanks" dxfId="46" priority="53">
+    <cfRule type="containsBlanks" dxfId="42" priority="53">
       <formula>LEN(TRIM(F20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F23">
-    <cfRule type="notContainsBlanks" dxfId="45" priority="54">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="54">
       <formula>LEN(TRIM(F20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E27">
-    <cfRule type="containsText" dxfId="44" priority="50" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="50" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6401,22 +6361,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F27">
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="39" priority="47" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F27">
-    <cfRule type="containsBlanks" dxfId="42" priority="48">
+    <cfRule type="containsBlanks" dxfId="38" priority="48">
       <formula>LEN(TRIM(F24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F27">
-    <cfRule type="notContainsBlanks" dxfId="41" priority="49">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="49">
       <formula>LEN(TRIM(F24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:E31">
-    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6433,22 +6393,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F31">
-    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="35" priority="42" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F31">
-    <cfRule type="containsBlanks" dxfId="38" priority="43">
+    <cfRule type="containsBlanks" dxfId="34" priority="43">
       <formula>LEN(TRIM(F28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F31">
-    <cfRule type="notContainsBlanks" dxfId="37" priority="44">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="44">
       <formula>LEN(TRIM(F28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:E35">
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="40" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6465,22 +6425,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F35">
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F35">
-    <cfRule type="containsBlanks" dxfId="34" priority="38">
+    <cfRule type="containsBlanks" dxfId="30" priority="38">
       <formula>LEN(TRIM(F32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F35">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="39">
       <formula>LEN(TRIM(F32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:E39">
-    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6497,22 +6457,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:F39">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="27" priority="32" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F36))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:F39">
-    <cfRule type="containsBlanks" dxfId="30" priority="33">
+    <cfRule type="containsBlanks" dxfId="26" priority="33">
       <formula>LEN(TRIM(F36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:F39">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="34">
       <formula>LEN(TRIM(F36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:E43">
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6529,22 +6489,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F43">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F40))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F43">
-    <cfRule type="containsBlanks" dxfId="26" priority="28">
+    <cfRule type="containsBlanks" dxfId="22" priority="28">
       <formula>LEN(TRIM(F40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F43">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="29">
       <formula>LEN(TRIM(F40))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:E47">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6561,22 +6521,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F47">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F44))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F47">
-    <cfRule type="containsBlanks" dxfId="22" priority="23">
+    <cfRule type="containsBlanks" dxfId="18" priority="23">
       <formula>LEN(TRIM(F44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F47">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="24">
       <formula>LEN(TRIM(F44))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:E51">
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6593,22 +6553,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F51">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F48))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F51">
-    <cfRule type="containsBlanks" dxfId="18" priority="18">
+    <cfRule type="containsBlanks" dxfId="14" priority="18">
       <formula>LEN(TRIM(F48))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F51">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="19">
       <formula>LEN(TRIM(F48))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:E55">
-    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6625,47 +6585,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:F55">
-    <cfRule type="containsBlanks" dxfId="15" priority="13">
+    <cfRule type="containsBlanks" dxfId="11" priority="13">
       <formula>LEN(TRIM(F52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:F55">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="14">
       <formula>LEN(TRIM(F52))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsBlanks" dxfId="12" priority="10">
+    <cfRule type="containsBlanks" dxfId="8" priority="10">
       <formula>LEN(TRIM(F3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="11">
       <formula>LEN(TRIM(F3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
+    <cfRule type="containsBlanks" dxfId="5" priority="5">
       <formula>LEN(TRIM(F8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(F8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6682,17 +6642,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(F4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/США/Юбилейные 1$ США из недрагоценных металлов.xlsx
+++ b/Collections/США/Юбилейные 1$ США из недрагоценных металлов.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\США\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\США\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Президенты США&quot;" sheetId="1" r:id="rId1"/>
@@ -1969,24 +1969,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="7" max="26" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
       <c r="B2" s="58"/>
       <c r="C2" s="1" t="s">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E2" s="58"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -2980,962 +2980,962 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -3984,25 +3984,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H989"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="4" width="7.54296875" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" customWidth="1"/>
-    <col min="6" max="7" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" customWidth="1"/>
-    <col min="9" max="20" width="8.7265625" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="20" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>49</v>
       </c>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="G1" s="64"/>
     </row>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
       <c r="B2" s="58"/>
       <c r="C2" s="32" t="s">
@@ -4038,7 +4038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>2009</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>2010</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>2011</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>2012</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>2013</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>2014</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>2015</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>2016</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>2017</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>2018</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>2019</v>
       </c>
@@ -4326,14 +4326,14 @@
         <v>127</v>
       </c>
       <c r="C13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>141</v>
@@ -4346,982 +4346,982 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F1:G1"/>
@@ -5381,25 +5381,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="33.54296875" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" customWidth="1"/>
-    <col min="7" max="8" width="10.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>49</v>
       </c>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="H1" s="64"/>
     </row>
-    <row r="2" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67"/>
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
@@ -5439,7 +5439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2018</v>
       </c>
@@ -5462,11 +5462,11 @@
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
       <c r="I3" s="7" t="str">
-        <f>IF(OR(AND(D3&gt;1,E3&lt;&gt;"-"),AND(D3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43">
         <v>2019</v>
       </c>
@@ -5489,11 +5489,11 @@
       <c r="G4" s="48"/>
       <c r="H4" s="48"/>
       <c r="I4" s="7" t="str">
-        <f t="shared" ref="I4:I59" si="1">IF(OR(AND(D4&gt;1,E4&lt;&gt;"-"),AND(D4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ref="I4:I59" si="1">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2019</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -5516,11 +5516,11 @@
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
       <c r="I5" s="7" t="str">
-        <f>IF(OR(AND(D5&gt;1,E5&lt;&gt;"-"),AND(D5&gt;1,E5&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>Есть на обмен</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2019</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5544,10 +5544,10 @@
       <c r="H6" s="31"/>
       <c r="I6" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>Есть на обмен</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="49">
         <v>2019</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>2020</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2020</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2020</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>2020</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2021</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2021</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>2021</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2022</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2022</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2022</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>2022</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2023</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2023</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2023</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>2023</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>2024</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2024</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2024</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>2024</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>2025</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2025</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2025</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>2025</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>2026</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2026</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2026</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>2026</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>2027</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2027</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2027</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>2027</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>2028</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2028</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2028</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>2028</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>2029</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2029</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2029</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>2029</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>2030</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2030</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2030</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>2030</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>2031</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2031</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2031</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <v>2031</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>2032</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2032</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2032</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
         <v>2032</v>
       </c>
@@ -7106,9 +7106,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>

--- a/Collections/США/Юбилейные 1$ США из недрагоценных металлов.xlsx
+++ b/Collections/США/Юбилейные 1$ США из недрагоценных металлов.xlsx
@@ -1967,13 +1967,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1986,7 +1986,7 @@
     <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
       <c r="B2" s="58"/>
       <c r="C2" s="1" t="s">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E2" s="58"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -2980,962 +2980,9 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -3982,13 +3029,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H989"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4002,7 +3049,7 @@
     <col min="9" max="20" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>49</v>
       </c>
@@ -4021,7 +3068,7 @@
       </c>
       <c r="G1" s="64"/>
     </row>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
       <c r="B2" s="58"/>
       <c r="C2" s="32" t="s">
@@ -4038,7 +3085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>2009</v>
       </c>
@@ -4066,7 +3113,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>2010</v>
       </c>
@@ -4094,7 +3141,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>2011</v>
       </c>
@@ -4122,7 +3169,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>2012</v>
       </c>
@@ -4150,7 +3197,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>2013</v>
       </c>
@@ -4178,7 +3225,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>2014</v>
       </c>
@@ -4206,7 +3253,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>2015</v>
       </c>
@@ -4234,7 +3281,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>2016</v>
       </c>
@@ -4262,7 +3309,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>2017</v>
       </c>
@@ -4290,7 +3337,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>2018</v>
       </c>
@@ -4318,7 +3365,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>2019</v>
       </c>
@@ -4346,982 +3393,6 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F1:G1"/>
@@ -5382,13 +3453,13 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="29" customWidth="1"/>
@@ -5399,7 +3470,7 @@
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>49</v>
       </c>
@@ -5421,7 +3492,7 @@
       </c>
       <c r="H1" s="64"/>
     </row>
-    <row r="2" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67"/>
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
@@ -5439,7 +3510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2018</v>
       </c>
@@ -5466,7 +3537,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43">
         <v>2019</v>
       </c>
@@ -5493,7 +3564,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2019</v>
       </c>
@@ -5520,7 +3591,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2019</v>
       </c>
@@ -5547,7 +3618,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="49">
         <v>2019</v>
       </c>
@@ -5574,7 +3645,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>2020</v>
       </c>
@@ -5592,7 +3663,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2020</v>
       </c>
@@ -5610,7 +3681,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2020</v>
       </c>
@@ -5628,7 +3699,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>2020</v>
       </c>
@@ -5724,7 +3795,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2022</v>
       </c>
@@ -5745,7 +3816,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2022</v>
       </c>
@@ -5766,7 +3837,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2022</v>
       </c>
@@ -5787,7 +3858,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>2022</v>
       </c>
@@ -5808,7 +3879,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2023</v>
       </c>
@@ -5829,7 +3900,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2023</v>
       </c>
@@ -5850,7 +3921,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2023</v>
       </c>
@@ -5871,7 +3942,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>2023</v>
       </c>
@@ -5892,7 +3963,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>2024</v>
       </c>
@@ -5913,7 +3984,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2024</v>
       </c>
@@ -5934,7 +4005,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2024</v>
       </c>
@@ -5955,7 +4026,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>2024</v>
       </c>
@@ -5976,7 +4047,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>2025</v>
       </c>
@@ -5997,7 +4068,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2025</v>
       </c>
@@ -6018,7 +4089,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2025</v>
       </c>
@@ -6039,7 +4110,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>2025</v>
       </c>
@@ -6060,7 +4131,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>2026</v>
       </c>
@@ -6081,7 +4152,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2026</v>
       </c>
@@ -6102,7 +4173,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2026</v>
       </c>
@@ -6123,7 +4194,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>2026</v>
       </c>
@@ -6144,7 +4215,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>2027</v>
       </c>
@@ -6165,7 +4236,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2027</v>
       </c>
@@ -6186,7 +4257,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2027</v>
       </c>
@@ -6207,7 +4278,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>2027</v>
       </c>
@@ -6228,7 +4299,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>2028</v>
       </c>
@@ -6249,7 +4320,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2028</v>
       </c>
@@ -6270,7 +4341,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2028</v>
       </c>
@@ -6291,7 +4362,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>2028</v>
       </c>
@@ -6312,7 +4383,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>2029</v>
       </c>
@@ -6333,7 +4404,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2029</v>
       </c>
@@ -6354,7 +4425,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2029</v>
       </c>
@@ -6372,7 +4443,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>2029</v>
       </c>
@@ -6390,7 +4461,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>2030</v>
       </c>
@@ -6408,7 +4479,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2030</v>
       </c>
@@ -6426,7 +4497,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2030</v>
       </c>
@@ -6444,7 +4515,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>2030</v>
       </c>
@@ -6462,7 +4533,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>2031</v>
       </c>
@@ -6480,7 +4551,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2031</v>
       </c>
@@ -6498,7 +4569,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2031</v>
       </c>
@@ -6516,7 +4587,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <v>2031</v>
       </c>
@@ -6534,7 +4605,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>2032</v>
       </c>
@@ -6552,7 +4623,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2032</v>
       </c>
@@ -6570,7 +4641,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2032</v>
       </c>
@@ -6588,7 +4659,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
         <v>2032</v>
       </c>
